--- a/Doc/99管理対象外/40手順書/開発環境作成手順書.xlsx
+++ b/Doc/99管理対象外/40手順書/開発環境作成手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\99管理対象外\40手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8A3118-73AB-49C3-AA5A-B2DE0FA1F47D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8E7FB5-21EC-4E17-A8D1-38DE4FCF3A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D6FC019C-9B72-4C8D-A117-F1328E79FDFB}"/>
+    <workbookView xWindow="6470" yWindow="730" windowWidth="11100" windowHeight="7360" activeTab="1" xr2:uid="{D6FC019C-9B72-4C8D-A117-F1328E79FDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="開発環境作成" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
   <si>
     <t>https://www.sourcetreeapp.com/</t>
   </si>
@@ -248,6 +248,81 @@
   </si>
   <si>
     <t>または$ python -m pip install pygame</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・リモートリポジトリ作成</t>
+  </si>
+  <si>
+    <t>・first commit</t>
+  </si>
+  <si>
+    <t>git branch [新しいブランチ]</t>
+  </si>
+  <si>
+    <t>git checkout [新しいブランチ]</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git commit -m"コメント"</t>
+  </si>
+  <si>
+    <t>git remote add origin [URL]</t>
+  </si>
+  <si>
+    <t>git push origin [新しいブランチ]</t>
+  </si>
+  <si>
+    <t>バージョン管理完成版：コマンド手順</t>
+    <rPh sb="15" eb="17">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓インストール後</t>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓GitHubアカウントを認証</t>
+    <rPh sb="13" eb="15">
+      <t>ニンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓認証後Cloneして適当なフォルダにリポジトリを作成</t>
+    <rPh sb="1" eb="3">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓クローンする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓指定したディレクトリにリポジトリが作成される。→OK</t>
+    <rPh sb="1" eb="3">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -337,6 +412,50 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541371</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>84800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD4F28B-FB92-455A-8330-286AC1A6A1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="38633400"/>
+          <a:ext cx="12428571" cy="7400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -360,7 +479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -404,7 +523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -551,6 +670,710 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541371</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>84800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696EA9F0-A6BA-4CF1-A842-16F52D4FF620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="17373600"/>
+          <a:ext cx="12428571" cy="7400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA864F08-280C-4A6D-927D-446E471675C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="22574250"/>
+          <a:ext cx="3784600" cy="1022350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199257</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>189876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15680F6A-1FBF-47A9-A9B4-7B58BE21DFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="25374600"/>
+          <a:ext cx="6142857" cy="4990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB290FBB-86F8-4C1F-B6CC-1BEA2FF5F87C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="26047700"/>
+          <a:ext cx="4425950" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE77DF54-5E47-4FA7-B7C7-84D1BE9F83AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="28759150"/>
+          <a:ext cx="4114800" cy="488950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C13CAF-58EA-4D2E-871A-337A99E03195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4425950" y="29705300"/>
+          <a:ext cx="1358900" cy="488950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>541371</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>84800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E22161-AD85-4E24-B240-ABA00A939EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="30861000"/>
+          <a:ext cx="12428571" cy="7400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED7754A-4E7C-49F7-B289-446C2F318D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187450" y="35134550"/>
+          <a:ext cx="3251200" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB08865-C270-4376-A267-31EDDBD895E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="35331400"/>
+          <a:ext cx="933450" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E26EE5-C823-4838-9F2B-4A1D0A7A287F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="45021500"/>
+          <a:ext cx="1600200" cy="641350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5476B27E-6405-4806-BDDF-1C3ECCEB91D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="41548050"/>
+          <a:ext cx="8807450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>439867</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>113600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E15FC2-38D1-46A0-BE55-719B5A444156}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="46405800"/>
+          <a:ext cx="11666667" cy="5600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1638,7 +2461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BEAF72-2791-4166-8011-577E900E0C8B}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1740,11 +2563,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93A2C6-1B52-494F-AE46-713C90426963}">
-  <dimension ref="B2:C74"/>
+  <dimension ref="B2:C203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -1778,6 +2599,31 @@
       </c>
       <c r="C74" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B169" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B203" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1794,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83782303-EF68-470C-9A07-2EE9FC01B15C}">
   <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1809,6 +2655,51 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">

--- a/Doc/99管理対象外/40手順書/開発環境作成手順書.xlsx
+++ b/Doc/99管理対象外/40手順書/開発環境作成手順書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\99管理対象外\40手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8E7FB5-21EC-4E17-A8D1-38DE4FCF3A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946006AE-8A9B-488C-A13D-815E8B60349D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6470" yWindow="730" windowWidth="11100" windowHeight="7360" activeTab="1" xr2:uid="{D6FC019C-9B72-4C8D-A117-F1328E79FDFB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{D6FC019C-9B72-4C8D-A117-F1328E79FDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="開発環境作成" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>https://www.sourcetreeapp.com/</t>
   </si>
@@ -322,6 +322,96 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓DB作成手順</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「データベース」メニュー→「データベースの追加と削除」→「追加」</t>
+    <rPh sb="21" eb="23">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓「MySQL/MariaDB(直接接続)(M)」を選択→パスワード「root」に設定→「OK」→名前を「localhost/python_game」でOK</t>
+    <rPh sb="16" eb="18">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓Queryにcreate.sqlからcreate文を抜き出して貼り付け（先頭のgrant all～はおまじない。）→「実行」</t>
+    <rPh sb="25" eb="26">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓python_gameの管理者ツール.データベース一覧からデータベース「dbo」を作成</t>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓table「character」が作成されていることを確認</t>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1704,6 +1794,50 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB5ECF1-D781-4F73-8423-99FEBFE698E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="53263800"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1797,7 +1931,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1812,6 +1946,512 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7653392-FFA7-4732-B6E1-028C138F1574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="10287000"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF4639F-0476-494C-B874-A0CF2C13471C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3835400" y="18205450"/>
+          <a:ext cx="1562100" cy="603250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>227314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAA24237-F067-4A89-A2D7-51F31E96D166}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="21717000"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9863DF9-6D28-40FE-9FA7-2C04ED3B0B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="32689800"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B383EE-CDF4-4A98-BBF5-4C0AB6F20009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4095750" y="34353500"/>
+          <a:ext cx="673100" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>113086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAE6F3D-4F60-46F4-8716-9447E3A77653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="42976800"/>
+          <a:ext cx="18285714" cy="9714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E093BEC4-80F3-4D12-A031-B0C04A334E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3873500" y="34709100"/>
+          <a:ext cx="1955800" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A472779D-4C5E-4C5C-8B1E-16361DF88940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3879850" y="35217100"/>
+          <a:ext cx="1873250" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9583918E-1D1A-43DE-B0FD-9E11E483AF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1625600" y="57588150"/>
+          <a:ext cx="1295400" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2565,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F93A2C6-1B52-494F-AE46-713C90426963}">
   <dimension ref="B2:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -2826,9 +3466,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9FE958-6D46-467A-8A9B-2A2AC934F778}">
-  <dimension ref="B2:C74"/>
+  <dimension ref="B2:C233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -2843,25 +3483,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1</v>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" t="s">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B188" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B233" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/99管理対象外/40手順書/開発環境作成手順書.xlsx
+++ b/Doc/99管理対象外/40手順書/開発環境作成手順書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\99管理対象外\40手順書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946006AE-8A9B-488C-A13D-815E8B60349D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA5E1F-67E6-4473-BD52-9FED8D5D0BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{D6FC019C-9B72-4C8D-A117-F1328E79FDFB}"/>
+    <workbookView xWindow="9440" yWindow="3360" windowWidth="11100" windowHeight="7360" xr2:uid="{D6FC019C-9B72-4C8D-A117-F1328E79FDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="開発環境作成" sheetId="6" r:id="rId1"/>
@@ -3101,7 +3101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BEAF72-2791-4166-8011-577E900E0C8B}">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3280,8 +3282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83782303-EF68-470C-9A07-2EE9FC01B15C}">
   <dimension ref="B2:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3468,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9FE958-6D46-467A-8A9B-2A2AC934F778}">
   <dimension ref="B2:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -3656,7 +3658,7 @@
   <dimension ref="B2:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
